--- a/数据整理/stocks/A股/深证主板/002060-粤水电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002060-粤水电.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,17 +823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -842,13 +863,103 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002060-粤水电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002060-粤水电.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +996,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002060-粤水电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002060-粤水电.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1091,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1086,14 +1129,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.15</v>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1102,13 +1167,133 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002060-粤水电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002060-粤水电.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,357 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012608</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信达澳银领先智选混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>49.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>71.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5990</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519193</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>万家消费成长股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1814</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007484</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信达澳银核心科技混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1507</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009688</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家鑫动力月月购一年滚动持有混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1415</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005400</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1280</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161910</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家新机遇价值驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0875</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006085</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>万家新机遇价值驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.90</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005401</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.07</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
+      <c r="D5" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -814,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,36 +605,110 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519193</t>
+          <t>005126</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家消费成长股票</t>
+          <t>银河量化稳进混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>71.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1515</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1040,7 +854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1091,110 +905,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005126</t>
+          <t>519193</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河量化稳进混合</t>
+          <t>万家消费成长股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.60</t>
+          <t>91.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.1515</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005053</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银河量化价值混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>68.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>013026</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河量化价值混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>68.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1208,96 +948,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5990</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.36</v>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>